--- a/project/paragraph.xlsx
+++ b/project/paragraph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023DFPQuang\20231010_dev\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\Group-4-customer-project-\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6689FA-3C19-4533-888B-150BAFCC1FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA1327-AADB-47D2-8360-9C9A3019B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>6a1_en</t>
   </si>
   <si>
-    <t>a2_en</t>
-  </si>
-  <si>
     <t>6a3_en</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>6a2_en</t>
   </si>
 </sst>
 </file>
@@ -461,9 +461,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -894,7 +893,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
@@ -902,7 +901,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -910,7 +909,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -918,7 +917,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -926,7 +925,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -934,7 +933,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -942,7 +941,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -950,7 +949,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -958,7 +957,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -966,7 +965,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -974,7 +973,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -982,7 +981,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -990,7 +989,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -998,7 +997,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1006,7 +1005,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1014,7 +1013,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1022,7 +1021,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1030,7 +1029,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1038,7 +1037,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1046,7 +1045,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1054,7 +1053,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1062,7 +1061,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -1070,7 +1069,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1078,7 +1077,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -1086,7 +1085,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -1094,7 +1093,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -1102,7 +1101,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -1110,7 +1109,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1118,7 +1117,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -1126,7 +1125,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -1134,7 +1133,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
@@ -1142,135 +1141,135 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>113</v>
+      <c r="A50" t="s">
+        <v>112</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>114</v>
+      <c r="A51" t="s">
+        <v>113</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>115</v>
+      <c r="A52" t="s">
+        <v>114</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>116</v>
+      <c r="A53" t="s">
+        <v>115</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>117</v>
+      <c r="A54" t="s">
+        <v>116</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>118</v>
+      <c r="A55" t="s">
+        <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>119</v>
+      <c r="A56" t="s">
+        <v>118</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>120</v>
+      <c r="A57" t="s">
+        <v>119</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>121</v>
+      <c r="A58" t="s">
+        <v>120</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>122</v>
+      <c r="A59" t="s">
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>123</v>
+      <c r="A60" t="s">
+        <v>122</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>124</v>
+      <c r="A61" t="s">
+        <v>123</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>125</v>
+      <c r="A62" t="s">
+        <v>124</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
+      <c r="A63" t="s">
+        <v>125</v>
       </c>
       <c r="B63" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>127</v>
+      <c r="A64" t="s">
+        <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
+      <c r="A65" t="s">
+        <v>127</v>
       </c>
       <c r="B65" t="s">
         <v>32</v>
